--- a/LenkasLittleHelper/template.xlsx
+++ b/LenkasLittleHelper/template.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Саша\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\LenkasLittleHelper\LenkasLittleHelper\bin\Debug\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A262055D-C537-4DDB-B793-3754FB6C8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7027A323-3F29-435E-8892-FD2E1DA5088C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План врачи" sheetId="1" r:id="rId1"/>
+    <sheet name="План аптеки" sheetId="5" r:id="rId2"/>
+    <sheet name="Факт врачи" sheetId="4" r:id="rId3"/>
+    <sheet name="Факт аптеки" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>ДАТА</t>
   </si>
@@ -50,6 +53,111 @@
   </si>
   <si>
     <t>Примітки</t>
+  </si>
+  <si>
+    <t>ПІП Медичного представника</t>
+  </si>
+  <si>
+    <t>Назва аптеки</t>
+  </si>
+  <si>
+    <t>Адреса аптеки</t>
+  </si>
+  <si>
+    <t>Завідуюча аптеки</t>
+  </si>
+  <si>
+    <t>МП(ПІП)</t>
+  </si>
+  <si>
+    <t>місто</t>
+  </si>
+  <si>
+    <t>назва аптеки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> адреса аптеки</t>
+  </si>
+  <si>
+    <t>№ будинку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  телефон</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дата візиту</t>
+  </si>
+  <si>
+    <t>Наявність продукції</t>
+  </si>
+  <si>
+    <t>примітки</t>
+  </si>
+  <si>
+    <t>Анксіомедін № 20</t>
+  </si>
+  <si>
+    <t>Анксіомедин №60</t>
+  </si>
+  <si>
+    <t>Антистрес № 30</t>
+  </si>
+  <si>
+    <t>Антистрес № 60</t>
+  </si>
+  <si>
+    <t>Імунсил № 20</t>
+  </si>
+  <si>
+    <t>ІмунсилД3 №30</t>
+  </si>
+  <si>
+    <t>ІМУНСИЛ Дз №60</t>
+  </si>
+  <si>
+    <t>Імунсил Д3 Дуо №30</t>
+  </si>
+  <si>
+    <t>Цинкоферол-С № 30</t>
+  </si>
+  <si>
+    <t>Цинкоферол - 4000 № 30</t>
+  </si>
+  <si>
+    <t>Глюцемедин № 30</t>
+  </si>
+  <si>
+    <t>Глюцмедин №60</t>
+  </si>
+  <si>
+    <t>Індомірол № 30</t>
+  </si>
+  <si>
+    <t>Індомірол № 60</t>
+  </si>
+  <si>
+    <t>Індомірол - М № 30</t>
+  </si>
+  <si>
+    <t>Індомірол - М № 60</t>
+  </si>
+  <si>
+    <t>Інулін - Нутрімед № 60</t>
+  </si>
+  <si>
+    <t>Аденофіт - форте № 60</t>
+  </si>
+  <si>
+    <t>Соноиедін № 20</t>
+  </si>
+  <si>
+    <t>Деприліум № 30</t>
+  </si>
+  <si>
+    <t>Дуонефрил №60</t>
+  </si>
+  <si>
+    <t>№ візиту</t>
   </si>
 </sst>
 </file>
@@ -60,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###&quot;) &quot;###\-####"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -73,8 +181,40 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arimo"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +227,14 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,11 +257,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,6 +289,39 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -349,26 +543,27 @@
   </sheetPr>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="72.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -403,6 +598,292 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="12" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="12" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="70.900000000000006" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="12" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="72.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="12" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="27" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="7"/>
+    </row>
+    <row r="2" spans="1:30" ht="109.5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H1:AB1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="12" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>